--- a/biology/Histoire de la zoologie et de la botanique/Species_plantarum/Species_plantarum.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Species_plantarum/Species_plantarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Species plantarum, publié pour la première fois le 1er mai 1753, est un ouvrage en deux volumes de Carl von Linné. Sa réalisation marque le véritable point de départ de la mise en œuvre de la nomenclature botanique binominale telle qu'elle est toujours appliquée aujourd'hui.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ouvrage qui est une révision de sa nomenclature botanique de son ouvrage Systema naturæ publié en 1735, est historiquement remarquable pour les aspects suivants :
 il contient la description de toutes les plantes connues à l'époque,
